--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -41,7 +41,22 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 10:01 AM</t>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Friday, 23 May, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -245,16 +260,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -641,36 +656,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>1</v>
+      </c>
+      <c t="s" r="B7" s="8">
+        <v>10</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>11</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="11"/>
+      <c t="s" r="K7" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L7" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M7" s="11">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c t="s" r="A8" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c t="s" r="F8" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c t="s" r="I8" s="15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -56,7 +56,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 10:02 AM</t>
+    <t>Friday, 23 May, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -38,6 +38,9 @@
     <t>السعر</t>
   </si>
   <si>
+    <t xml:space="preserve">سعر  البيع</t>
+  </si>
+  <si>
     <t>عدد التعااملات</t>
   </si>
   <si>
@@ -53,10 +56,13 @@
     <t>173.00</t>
   </si>
   <si>
+    <t>173.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 11:59 AM</t>
+    <t>Friday, 23 May, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -73,7 +79,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##;&quot;[&quot;#,##0.##&quot;]&quot;;0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +115,11 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -237,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -272,16 +283,19 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -562,27 +576,30 @@
     <sheetView workbookViewId="0" showGridLines="0" rightToLeft="1"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="5.43" customWidth="1"/>
-    <col min="2" max="2" width="20.29" customWidth="1"/>
-    <col min="3" max="3" width="1.57" customWidth="1"/>
-    <col min="4" max="4" width="12.71" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="13.29" customWidth="1"/>
-    <col min="7" max="7" width="0.43" customWidth="1"/>
-    <col min="8" max="8" width="1.14" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="6.71" customWidth="1"/>
-    <col min="11" max="11" width="9.71" customWidth="1"/>
-    <col min="12" max="12" width="10.43" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="0.43" customWidth="1"/>
+    <col min="3" max="3" width="20.29" customWidth="1"/>
+    <col min="4" max="4" width="1.57" customWidth="1"/>
+    <col min="5" max="5" width="12.71" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="8.29" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="0.43" customWidth="1"/>
+    <col min="10" max="10" width="1.14" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="0.14" customWidth="1"/>
+    <col min="13" max="13" width="8.71" customWidth="1"/>
+    <col min="14" max="14" width="7.57" customWidth="1"/>
+    <col min="15" max="15" width="2" customWidth="1"/>
+    <col min="16" max="16" width="8.43" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="7.5" customHeight="1"/>
     <row r="2" ht="34.5" customHeight="1">
-      <c t="s" r="C2" s="1">
+      <c t="s" r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -590,6 +607,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" ht="35.25" customHeight="1">
       <c t="s" r="A3" s="2">
@@ -607,24 +627,30 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c t="s" r="D4" s="3">
+      <c t="s" r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>45800</v>
       </c>
-      <c r="F4" s="4"/>
-      <c t="s" r="G4" s="3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c t="s" r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4">
         <v>45800</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="0.75" customHeight="1"/>
     <row r="6" ht="25.5" customHeight="1">
@@ -644,78 +670,103 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c t="s" r="K6" s="6">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c t="s" r="M6" s="6">
         <v>7</v>
       </c>
-      <c t="s" r="L6" s="6">
+      <c t="s" r="N6" s="6">
         <v>8</v>
       </c>
-      <c t="s" r="M6" s="6">
+      <c r="O6" s="6"/>
+      <c t="s" r="P6" s="6">
         <v>9</v>
+      </c>
+      <c t="s" r="Q6" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c t="s" r="B7" s="8">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="B7" s="7"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c t="s" r="H7" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c t="s" r="K7" s="10">
-        <v>12</v>
-      </c>
-      <c t="s" r="L7" s="8">
+      <c r="K7" s="9"/>
+      <c t="s" r="L7" s="10">
         <v>13</v>
       </c>
-      <c t="s" r="M7" s="11">
+      <c r="M7" s="10"/>
+      <c t="s" r="N7" s="8">
         <v>14</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c t="s" r="P7" s="8">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="11">
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c t="s" r="A8" s="12">
+      <c t="s" r="P8" s="12">
         <v>15</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c t="s" r="F8" s="13">
-        <v>16</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c t="s" r="I8" s="15">
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c t="s" r="A9" s="13">
         <v>17</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c t="s" r="G9" s="14">
+        <v>18</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c t="s" r="K9" s="16">
+        <v>19</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
+  <mergeCells count="16">
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,25 +44,67 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>GLYCERIN-ROTEX SOAP</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
     <t>0:-1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>173.00</t>
   </si>
   <si>
     <t>173.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Friday, 23 May, 2025 12:42 PM</t>
+    <t>UNBLOCKY SOAP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>20.000029.5000173.000055.0000</t>
+  </si>
+  <si>
+    <t>Friday, 23 May, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -719,38 +761,137 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c t="s" r="P8" s="12">
-        <v>15</v>
+    <row r="8" ht="24.75" customHeight="1">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="8">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="11">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="13">
-        <v>17</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c t="s" r="G9" s="14">
-        <v>18</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c t="s" r="K9" s="16">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="8">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>19</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="8">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="43.5" customHeight="1">
+      <c t="s" r="P11" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="13">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c t="s" r="G12" s="14">
+        <v>32</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c t="s" r="K12" s="16">
+        <v>33</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="31">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -764,9 +905,24 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -101,10 +101,10 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>20.000029.5000173.000055.0000</t>
-  </si>
-  <si>
-    <t>Friday, 23 May, 2025 12:43 PM</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Friday, 23 May, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -325,8 +325,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -860,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="43.5" customHeight="1">
+    <row r="11" ht="25.5" customHeight="1">
       <c t="s" r="P11" s="12">
         <v>30</v>
       </c>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -101,10 +101,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Friday, 23 May, 2025 12:47 PM</t>
+    <t>Friday, 23 May, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -117,9 +114,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##;&quot;[&quot;#,##0.##&quot;]&quot;;0"/>
+    <numFmt numFmtId="166" formatCode="#.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -290,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -322,10 +320,13 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -754,10 +755,10 @@
         <v>14</v>
       </c>
       <c r="O7" s="8"/>
-      <c t="s" r="P7" s="8">
+      <c t="s" r="P7" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q7" s="11">
+      <c t="s" r="Q7" s="12">
         <v>16</v>
       </c>
     </row>
@@ -787,10 +788,10 @@
         <v>20</v>
       </c>
       <c r="O8" s="8"/>
-      <c t="s" r="P8" s="8">
+      <c t="s" r="P8" s="11">
         <v>21</v>
       </c>
-      <c t="s" r="Q8" s="11">
+      <c t="s" r="Q8" s="12">
         <v>22</v>
       </c>
     </row>
@@ -820,10 +821,10 @@
         <v>25</v>
       </c>
       <c r="O9" s="8"/>
-      <c t="s" r="P9" s="8">
+      <c t="s" r="P9" s="11">
         <v>26</v>
       </c>
-      <c t="s" r="Q9" s="11">
+      <c t="s" r="Q9" s="12">
         <v>22</v>
       </c>
     </row>
@@ -853,42 +854,42 @@
         <v>28</v>
       </c>
       <c r="O10" s="8"/>
-      <c t="s" r="P10" s="8">
+      <c t="s" r="P10" s="11">
         <v>29</v>
       </c>
-      <c t="s" r="Q10" s="11">
+      <c t="s" r="Q10" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c t="s" r="P11" s="12">
-        <v>30</v>
+      <c r="P11" s="13">
+        <v>277.5</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="13">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
         <v>31</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c t="s" r="G12" s="14">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
         <v>32</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c t="s" r="K12" s="16">
-        <v>33</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="31">

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 12:51 PM</t>
+    <t>Friday, 23 May, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 12:55 PM</t>
+    <t>Friday, 23 May, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -320,7 +320,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -865,6 +865,7 @@
       <c r="P11" s="13">
         <v>277.5</v>
       </c>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c t="s" r="A12" s="14">
@@ -892,7 +893,7 @@
       <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -921,6 +922,7 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="K12:Q12"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 12:57 PM</t>
+    <t>Friday, 23 May, 2025 1:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>GLYCERIN-ROTEX SOAP</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>29.5000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -98,7 +110,10 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>Friday, 23 May, 2025 1:56 PM</t>
@@ -781,18 +796,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -801,20 +816,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -825,7 +840,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -841,59 +856,92 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>277.5</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>23</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>24</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>404.5</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +970,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,79 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CONCOR 5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>GLYCERIN-ROTEX SOAP</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>29.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>UNBLOCKY SOAP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Friday, 23 May, 2025 1:56 PM</t>
+    <t>Friday, 23 May, 2025 2:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -326,10 +254,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -338,7 +266,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -746,202 +674,56 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="7"/>
-      <c t="s" r="C7" s="8">
-        <v>11</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c t="s" r="H7" s="9">
-        <v>12</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c t="s" r="L7" s="10">
-        <v>13</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c t="s" r="N7" s="8">
-        <v>14</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c t="s" r="P7" s="11">
-        <v>15</v>
-      </c>
-      <c t="s" r="Q7" s="12">
-        <v>16</v>
-      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c t="s" r="C8" s="8">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c t="s" r="H8" s="9">
-        <v>18</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c t="s" r="L8" s="10">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c t="s" r="A9" s="14">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c t="s" r="G9" s="15">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c t="s" r="K9" s="17">
         <v>13</v>
       </c>
-      <c r="M8" s="10"/>
-      <c t="s" r="N8" s="8">
-        <v>19</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c t="s" r="P8" s="11">
-        <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c t="s" r="C9" s="8">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c t="s" r="H9" s="9">
-        <v>23</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c t="s" r="L9" s="10">
-        <v>24</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c t="s" r="N9" s="8">
-        <v>25</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c t="s" r="P9" s="11">
-        <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
-        <v>27</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
-        <v>28</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
-        <v>13</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
-        <v>29</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
-        <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
-        <v>23</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>24</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>32</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>404.5</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>36</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>37</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="17">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -955,30 +737,10 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 2:35 PM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Friday, 23 May, 2025 2:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>35</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,25 +44,118 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>53:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>42:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Friday, 23 May, 2025 2:36 PM</t>
+    <t>Friday, 23 May, 2025 2:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +817,302 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>23</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>28</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>29</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>29</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>29</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>29</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>45</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>29</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>142.66499999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +1126,50 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -62,6 +62,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CLEXANE 20MG/0.2ML 2 PREFILLED SYRINGES</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>183.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CLEXANE 40MG/0.4ML 2 PREFILLED SYRINGE</t>
+  </si>
+  <si>
+    <t>311.00</t>
+  </si>
+  <si>
+    <t>311.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -89,9 +113,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -107,9 +128,6 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -155,7 +173,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 2:46 PM</t>
+    <t>Friday, 23 May, 2025 3:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -846,7 +864,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -855,14 +873,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -879,7 +897,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -905,11 +923,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -921,31 +939,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -961,24 +979,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -987,31 +1005,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1020,31 +1038,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1053,66 +1071,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>47</v>
       </c>
-      <c t="s" r="Q15" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>142.66499999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>36</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>48</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>36</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>636.66499999999996</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1166,10 +1250,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 3:35 PM</t>
+    <t>Friday, 23 May, 2025 4:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -173,7 +185,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 4:47 PM</t>
+    <t>Friday, 23 May, 2025 5:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1090,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,11 +1100,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1104,14 +1116,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1165,38 +1177,71 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>636.66499999999996</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>36</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>731.66499999999996</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>59</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>60</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1305,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,10 +44,28 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ATLANTIKIO TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>1</t>
@@ -56,30 +74,30 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CLEXANE 20MG/0.2ML 2 PREFILLED SYRINGES</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>183.0000</t>
+  </si>
+  <si>
+    <t>CLEXANE 40MG/0.4ML 2 PREFILLED SYRINGE</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>CLEXANE 20MG/0.2ML 2 PREFILLED SYRINGES</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>183.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>CLEXANE 40MG/0.4ML 2 PREFILLED SYRINGE</t>
-  </si>
-  <si>
     <t>311.00</t>
   </si>
   <si>
@@ -113,15 +131,39 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
     <t>53:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -140,37 +182,40 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
@@ -185,7 +230,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:00 PM</t>
+    <t>Friday, 23 May, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -865,18 +910,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -885,31 +930,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -918,28 +963,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -951,31 +996,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -984,31 +1029,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1017,20 +1062,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1038,10 +1083,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1050,31 +1095,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1083,31 +1128,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1116,31 +1161,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1149,31 +1194,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1182,66 +1227,198 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>731.66499999999996</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>58</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>60</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>929.54499999999996</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1310,10 +1487,30 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -104,6 +104,27 @@
     <t>311.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -137,6 +158,24 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
@@ -146,6 +185,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -173,9 +221,6 @@
     <t>سائل ريد</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
@@ -230,7 +275,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:07 PM</t>
+    <t>Friday, 23 May, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1003,7 +1048,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1013,11 +1058,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>28</v>
@@ -1029,14 +1074,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1046,11 +1091,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>28</v>
@@ -1062,14 +1107,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1079,14 +1124,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1102,7 +1147,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1112,11 +1157,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>28</v>
@@ -1128,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,14 +1190,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1168,24 +1213,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,31 +1239,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,31 +1272,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,31 +1305,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,20 +1338,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1317,7 +1362,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,7 +1395,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1366,7 +1411,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1376,49 +1421,214 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>929.54499999999996</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>73</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>75</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>81</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1107.625</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>88</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>89</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>90</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1717,35 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>311.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -176,6 +188,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
@@ -218,6 +242,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -245,9 +278,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -275,7 +305,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:14 PM</t>
+    <t>Friday, 23 May, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1048,7 +1078,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1058,11 +1088,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>28</v>
@@ -1074,14 +1104,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1190,14 +1220,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1206,14 +1236,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1223,14 +1253,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1256,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>28</v>
@@ -1272,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1289,11 +1319,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>28</v>
@@ -1305,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,11 +1352,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>28</v>
@@ -1338,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,11 +1385,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>28</v>
@@ -1371,20 +1401,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1395,7 +1425,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1411,24 +1441,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1437,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1454,11 +1484,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1470,7 +1500,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1487,14 +1517,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1520,14 +1550,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1536,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1553,14 +1583,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,14 +1599,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1586,49 +1616,148 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>78</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>91</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>95</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1107.625</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>88</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>89</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>90</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1171.0150000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1742,10 +1871,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -152,13 +152,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>47.8800</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -188,6 +188,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -275,6 +287,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -305,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:15 PM</t>
+    <t>Friday, 23 May, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1227,7 +1245,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1375,7 +1393,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1385,11 +1403,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>28</v>
@@ -1401,14 +1419,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,11 +1436,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -1434,14 +1452,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1480,7 +1498,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1491,7 +1509,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1507,7 +1525,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,11 +1535,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1533,14 +1551,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,11 +1568,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1566,14 +1584,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,11 +1601,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1599,7 +1617,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1616,14 +1634,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,7 +1650,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1649,14 +1667,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,11 +1700,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1698,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,49 +1733,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>101</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>102</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1171.0150000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>98</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>99</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>100</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1219.8150000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>104</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>105</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>106</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1937,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:26 PM</t>
+    <t>Friday, 23 May, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -240,6 +252,15 @@
   </si>
   <si>
     <t>16.3200</t>
+  </si>
+  <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>40.5000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1426,7 +1447,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,11 +1457,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -1452,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,11 +1490,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>28</v>
@@ -1485,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1531,7 +1552,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1542,7 +1563,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1558,13 +1579,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1575,7 +1596,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1591,7 +1612,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,11 +1622,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1617,7 +1638,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1634,11 +1655,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1700,14 +1721,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,14 +1737,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1740,7 +1761,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,49 +1787,115 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>103</v>
       </c>
-      <c t="s" r="Q31" s="12">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>104</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>105</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>108</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>109</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1219.8150000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>104</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>105</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>106</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1290.0150000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>111</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>112</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>113</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1942,10 +2029,20 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>90.00</t>
@@ -215,9 +215,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -344,7 +341,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:30 PM</t>
+    <t>Friday, 23 May, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1447,7 +1444,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,11 +1454,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -1473,7 +1470,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1490,11 +1487,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>28</v>
@@ -1506,7 +1503,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1523,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -1539,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,11 +1553,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>28</v>
@@ -1572,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,11 +1586,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>28</v>
@@ -1605,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,11 +1619,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1638,7 +1635,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1655,11 +1652,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1671,7 +1668,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1688,11 +1685,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1704,7 +1701,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1721,11 +1718,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1737,7 +1734,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1754,14 +1751,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,7 +1767,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1787,11 +1784,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1803,14 +1800,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1820,11 +1817,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1836,14 +1833,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,11 +1850,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1871,7 +1868,7 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c t="s" r="A35" s="14">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1879,13 +1876,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c t="s" r="G35" s="15">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c t="s" r="K35" s="17">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -191,30 +191,33 @@
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>4.8000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -315,6 +318,18 @@
   </si>
   <si>
     <t>6.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -1444,7 +1459,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,11 +1469,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -1470,7 +1485,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1487,11 +1502,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>28</v>
@@ -1503,7 +1518,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1520,11 +1535,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -1536,14 +1551,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,11 +1568,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>28</v>
@@ -1569,14 +1584,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1586,11 +1601,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>28</v>
@@ -1602,14 +1617,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,11 +1634,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1635,7 +1650,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1652,11 +1667,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1668,7 +1683,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1685,11 +1700,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1701,7 +1716,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1718,11 +1733,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1734,7 +1749,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,7 +1782,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1784,11 +1799,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1850,49 +1865,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>112</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>113</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1290.0150000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>110</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>111</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>112</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1345.0150000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>115</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>116</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>117</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2036,10 +2084,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -356,7 +356,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:32 PM</t>
+    <t>Friday, 23 May, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -188,6 +197,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -200,16 +221,34 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>4.8000</t>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
   </si>
   <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
@@ -290,9 +329,6 @@
     <t>95.00</t>
   </si>
   <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -317,7 +353,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -332,15 +368,21 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -356,7 +398,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:35 PM</t>
+    <t>Friday, 23 May, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1228,7 +1270,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1238,11 +1280,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>28</v>
@@ -1254,14 +1296,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1271,14 +1313,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1287,14 +1329,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1304,14 +1346,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1327,7 +1369,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1337,14 +1379,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1360,7 +1402,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,7 +1412,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1403,11 +1445,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>28</v>
@@ -1419,14 +1461,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,11 +1478,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>28</v>
@@ -1452,14 +1494,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1469,11 +1511,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -1485,14 +1527,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1525,7 +1567,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1542,7 +1584,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1558,7 +1600,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1568,11 +1610,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>28</v>
@@ -1584,14 +1626,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1624,24 +1666,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,31 +1692,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,20 +1725,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1707,7 +1749,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1723,13 +1765,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1740,7 +1782,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1756,7 +1798,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1766,14 +1808,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1799,14 +1841,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1815,14 +1857,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1836,7 +1878,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1848,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1865,14 +1907,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,14 +1923,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1898,49 +1940,214 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>113</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>12</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>102</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>114</v>
       </c>
-      <c t="s" r="Q34" s="12">
+      <c t="s" r="Q35" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>115</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>116</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>117</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1345.0150000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>115</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>116</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>117</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>119</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>81</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>120</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>122</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>123</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>64</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>125</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>126</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>127</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1573.685</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>129</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>130</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>131</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2089,10 +2296,35 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,6 +44,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ATLANTIKIO TAB</t>
   </si>
   <si>
@@ -68,9 +83,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -80,6 +92,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>CLEXANE 20MG/0.2ML 2 PREFILLED SYRINGES</t>
   </si>
   <si>
@@ -95,9 +116,6 @@
     <t>CLEXANE 40MG/0.4ML 2 PREFILLED SYRINGE</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>311.00</t>
   </si>
   <si>
@@ -233,6 +251,18 @@
     <t>10.5000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -398,7 +428,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 5:52 PM</t>
+    <t>Friday, 23 May, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1056,7 +1086,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1065,31 +1095,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1098,31 +1128,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1138,24 +1168,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1164,31 +1194,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1197,31 +1227,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1230,31 +1260,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1263,31 +1293,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1296,31 +1326,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1329,31 +1359,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1362,31 +1392,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1395,20 +1425,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1419,7 +1449,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1441,18 +1471,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1468,24 +1498,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1494,31 +1524,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1527,31 +1557,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1560,31 +1590,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1593,20 +1623,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1617,7 +1647,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1633,24 +1663,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1659,31 +1689,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1692,31 +1722,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1725,31 +1755,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1758,31 +1788,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1791,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1808,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1857,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1890,7 +1920,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1907,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,31 +1953,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1956,31 +1986,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1989,31 +2019,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2022,31 +2052,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2055,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2088,66 +2118,198 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>126</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>18</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>127</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1573.685</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>129</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>91</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>18</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>130</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>132</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>133</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>18</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>70</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>136</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>18</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>137</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1710.7650000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>139</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>140</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>141</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2321,10 +2483,30 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRIDE 50 MG 30 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -176,6 +188,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -191,12 +212,18 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -215,6 +242,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -233,12 +269,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
     <t>IMIPRAMINE 25MG 50 TAB.</t>
   </si>
   <si>
@@ -311,6 +341,12 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -332,16 +368,37 @@
     <t>40.5000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>53:0</t>
+    <t>52:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -383,7 +440,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -398,6 +455,9 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -410,10 +470,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
+    <t>72.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
@@ -428,7 +485,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 6:15 PM</t>
+    <t>Friday, 23 May, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1143,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1095,31 +1152,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1128,31 +1185,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1161,14 +1218,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1185,7 +1242,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1194,14 +1251,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1218,7 +1275,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1234,7 +1291,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1301,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1260,14 +1317,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1284,7 +1341,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1300,7 +1357,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1367,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1383,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1350,7 +1407,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1366,7 +1423,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1433,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1449,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1416,7 +1473,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1449,7 +1506,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1465,7 +1522,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1475,14 +1532,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1498,7 +1555,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1565,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1581,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1598,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1564,7 +1621,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1631,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1647,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1664,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1680,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,14 +1697,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,14 +1713,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1730,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1746,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1713,7 +1770,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,7 +1786,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,14 +1796,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,14 +1812,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1779,7 +1836,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1795,7 +1852,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1862,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,14 +1911,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1928,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1977,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1994,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,31 +2010,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,31 +2043,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,31 +2076,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,31 +2109,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,31 +2142,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2175,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2208,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2241,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2274,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,66 +2307,330 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>135</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>22</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>136</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>138</v>
       </c>
-      <c t="s" r="Q43" s="12">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1710.7650000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>22</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>139</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q45" s="12">
         <v>141</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>142</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>21</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>22</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>131</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>144</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>145</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>22</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>146</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>148</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>21</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>22</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>124</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>149</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>101</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>22</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>150</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>143</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>22</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>82</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>155</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>22</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>156</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2095.3899999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>158</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>159</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>160</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2503,10 +2824,50 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANSELACOX 90MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>235.50</t>
+  </si>
+  <si>
+    <t>235.5000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>ATLANTIKIO TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>100.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -293,6 +302,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>81.1800</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -350,13 +371,13 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
@@ -431,16 +452,40 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>120:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -485,7 +530,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 6:21 PM</t>
+    <t>Friday, 23 May, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1204,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1169,14 +1214,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1185,20 +1230,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1209,7 +1254,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1218,31 +1263,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1251,7 +1296,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1268,14 +1313,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1291,7 +1336,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1301,14 +1346,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1317,14 +1362,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1341,7 +1386,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1357,7 +1402,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1367,14 +1412,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1383,14 +1428,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1423,7 +1468,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,11 +1478,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1449,14 +1494,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1489,7 +1534,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1499,11 +1544,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1515,14 +1560,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1555,7 +1600,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,14 +1610,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1581,14 +1626,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1598,14 +1643,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1614,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,14 +1676,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1654,7 +1699,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1671,7 +1716,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1687,7 +1732,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,7 +1742,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1720,7 +1765,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,7 +1775,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1753,7 +1798,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1763,11 +1808,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1779,14 +1824,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,11 +1841,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1812,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1829,11 +1874,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1845,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1862,11 +1907,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1878,14 +1923,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1895,14 +1940,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1918,7 +1963,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1935,7 +1980,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1951,7 +1996,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1961,14 +2006,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1977,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2001,7 +2046,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2017,7 +2062,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2050,7 +2095,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,11 +2105,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2076,14 +2121,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,11 +2138,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2109,14 +2154,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,11 +2171,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2142,14 +2187,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,7 +2204,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2182,7 +2227,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,14 +2237,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,20 +2253,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2232,7 +2277,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2248,24 +2293,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,20 +2319,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2298,7 +2343,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2314,24 +2359,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,31 +2385,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,31 +2418,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2413,24 +2458,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,20 +2484,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2463,7 +2508,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2479,24 +2524,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2505,31 +2550,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,31 +2583,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2571,66 +2616,198 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2095.3899999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>158</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>159</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>160</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>163</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>18</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>26</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>131</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>108</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>26</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>165</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>167</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>150</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>26</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>85</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>169</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>170</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>26</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>171</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2485.3899999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>173</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>174</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>175</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2864,10 +3041,30 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
@@ -290,6 +290,27 @@
     <t>10.5000</t>
   </si>
   <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -317,9 +338,6 @@
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>9.6000</t>
   </si>
   <si>
@@ -365,9 +383,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>14.4000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -428,7 +443,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سائل ريد</t>
@@ -458,66 +473,66 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>120:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>120:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 190 مل</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
@@ -530,7 +545,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 6:54 PM</t>
+    <t>Friday, 23 May, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1681,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1680,10 +1695,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1930,7 +1945,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1940,11 +1955,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,14 +2021,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2062,7 +2077,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2105,14 +2120,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2121,7 +2136,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2138,11 +2153,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2194,7 +2209,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,11 +2219,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2244,7 +2259,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2260,7 +2275,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,11 +2285,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2303,14 +2318,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2319,31 +2334,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2352,31 +2367,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,11 +2417,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2435,14 +2450,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2475,7 +2490,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2491,7 +2506,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2505,10 +2520,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,7 +2532,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,14 +2615,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2633,14 +2648,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,11 +2681,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2722,7 +2737,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2732,14 +2747,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2765,49 +2780,115 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2485.3899999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>171</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>114</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>26</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>85</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>173</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>174</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>175</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>26</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>176</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2553.6700000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>178</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>179</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>180</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3061,10 +3142,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRIDE 50 MG 30 SCORED TABS.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>235.5000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -419,10 +431,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -515,6 +524,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم 555</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -545,7 +563,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 7:00 PM</t>
+    <t>Friday, 23 May, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1252,7 +1270,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1262,11 +1280,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1278,20 +1296,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1318,13 +1336,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1335,7 +1353,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1344,14 +1362,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1368,7 +1386,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1377,14 +1395,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1417,7 +1435,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1427,14 +1445,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1443,14 +1461,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1483,7 +1501,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1493,14 +1511,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1509,14 +1527,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1533,7 +1551,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1549,7 +1567,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1559,14 +1577,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1575,14 +1593,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1599,7 +1617,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1615,7 +1633,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1625,14 +1643,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1641,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1665,7 +1683,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1681,7 +1699,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1740,7 +1758,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1757,11 +1775,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1790,14 +1808,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1823,14 +1841,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1863,7 +1881,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2011,7 +2029,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2094,7 +2112,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2110,7 +2128,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2193,7 +2211,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2209,7 +2227,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2341,7 +2359,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,11 +2402,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2400,20 +2418,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2424,7 +2442,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2446,18 +2464,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,31 +2484,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,31 +2517,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,31 +2550,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2565,31 +2583,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2598,31 +2616,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,31 +2649,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,31 +2682,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,31 +2715,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2730,31 +2748,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2763,31 +2781,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2796,31 +2814,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2829,66 +2847,165 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>174</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>118</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>30</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>175</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>177</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2553.6700000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>118</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>30</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>89</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c t="s" r="Q59" s="12">
         <v>179</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>180</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>181</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>30</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>182</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2603.6700000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>184</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>185</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>186</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3152,10 +3269,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>47.8800</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -302,6 +311,24 @@
     <t>10.5000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>IVY BRONCH SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
   </si>
   <si>
@@ -326,6 +353,18 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -383,6 +422,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VERSERC 24MG 30 TAB</t>
   </si>
   <si>
@@ -467,7 +515,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -476,7 +524,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -527,9 +578,6 @@
     <t>كريم 555</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -563,7 +611,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 7:13 PM</t>
+    <t>Friday, 23 May, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1732,7 +1780,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,14 +1790,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1758,14 +1806,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,14 +1823,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1798,7 +1846,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1815,7 +1863,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1831,7 +1879,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,7 +1889,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1864,7 +1912,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,7 +1922,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1897,7 +1945,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,11 +1955,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1923,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,11 +1988,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1956,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,11 +2021,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1989,14 +2037,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,7 +2054,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2029,7 +2077,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,11 +2087,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2055,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2088,14 +2136,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,14 +2153,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2121,14 +2169,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2154,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2219,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2194,7 +2242,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,11 +2252,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2220,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2244,7 +2292,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2260,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,14 +2351,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2326,7 +2374,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2352,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2417,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,11 +2450,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2418,14 +2466,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,11 +2483,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2451,31 +2499,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,31 +2532,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,31 +2565,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,31 +2598,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,28 +2631,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2616,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2633,11 +2681,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2649,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2714,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,14 +2747,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>42</v>
@@ -2748,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,11 +2813,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2788,7 +2836,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,14 +2846,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,7 +2862,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2831,14 +2879,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2895,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2912,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,14 +2961,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,14 +2978,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2946,14 +2994,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2963,49 +3011,214 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2603.6700000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>184</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>185</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>186</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>187</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>23</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>30</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>14</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>188</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>172</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>30</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>159</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>190</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>131</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>30</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>191</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>131</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>30</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>92</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>197</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>30</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>198</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2799.23</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>200</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>201</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>202</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3284,10 +3497,35 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -200,36 +200,36 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -479,6 +479,15 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -524,60 +533,60 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>120:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم 555</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>120:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم 555</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -611,7 +620,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 7:31 PM</t>
+    <t>Friday, 23 May, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1690,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1691,14 +1700,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1707,7 +1716,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1724,11 +1733,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1740,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>63</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1823,7 +1832,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2077,7 +2086,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2506,7 +2515,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2704,7 +2713,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2803,7 +2812,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2817,10 +2826,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2886,7 +2895,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>172</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,7 +2904,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2935,7 +2944,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3100,7 +3109,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3110,7 +3119,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3133,7 +3142,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3166,7 +3175,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,49 +3185,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>199</v>
       </c>
-      <c t="s" r="Q65" s="12">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>200</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>30</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>201</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2799.23</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>200</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>201</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>202</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2888.4549999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>203</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>204</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>205</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3522,10 +3564,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 7:36 PM</t>
+    <t>Friday, 23 May, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>235.5000</t>
   </si>
   <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -125,6 +137,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -179,9 +200,6 @@
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -614,13 +632,10 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 7:43 PM</t>
+    <t>Friday, 23 May, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1360,7 +1375,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1377,7 +1392,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1386,20 +1401,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1410,7 +1425,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1426,13 +1441,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1443,7 +1458,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1476,7 +1491,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1500,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1525,7 +1540,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1542,7 +1557,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1575,7 +1590,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1591,7 +1606,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1608,7 +1623,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1657,7 +1672,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1690,7 +1705,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1707,7 +1722,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1723,7 +1738,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1756,7 +1771,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1781,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,11 +1880,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1921,7 +1936,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1954,7 +1969,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,11 +2012,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,11 +2045,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2086,7 +2101,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,11 +2111,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2136,7 +2151,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2152,7 +2167,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,7 +2177,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2185,7 +2200,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,11 +2243,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,11 +2276,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2277,7 +2292,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2383,7 +2398,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,7 +2457,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2459,11 +2474,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2499,7 +2514,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2515,7 +2530,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2548,7 +2563,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,11 +2639,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2664,7 +2679,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2680,24 +2695,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,28 +2721,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2739,20 +2754,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2772,31 +2787,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,31 +2820,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,20 +2853,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2859,10 +2874,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,7 +2886,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2884,18 +2899,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,31 +2919,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2950,18 +2965,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,20 +2985,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2994,7 +3009,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3010,24 +3025,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3051,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,28 +3084,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3102,28 +3117,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3135,28 +3150,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3175,24 +3190,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3208,59 +3223,125 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2888.4549999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>202</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>137</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>34</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>98</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c t="s" r="Q67" s="12">
         <v>204</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>205</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>206</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>34</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>27</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3265.4549999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>208</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>209</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>210</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3569,10 +3650,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>MARK FAST 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -635,7 +644,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 7:49 PM</t>
+    <t>Friday, 23 May, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2332,7 +2341,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2342,11 +2351,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2408,11 +2417,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>41</v>
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2441,11 +2450,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>41</v>
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2507,11 +2516,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2563,7 +2572,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2580,7 +2589,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2613,7 +2622,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2639,11 +2648,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2712,7 +2721,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2745,7 +2754,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2761,21 +2770,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2827,7 +2836,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2837,11 +2846,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2926,7 +2935,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2940,10 +2949,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3009,7 +3018,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>49</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3167,11 +3176,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3223,7 +3232,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3233,7 +3242,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3256,7 +3265,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3299,49 +3308,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>207</v>
       </c>
-      <c t="s" r="Q68" s="12">
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>208</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>209</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>34</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>27</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3265.4549999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>208</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>209</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>210</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3283.2750000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>211</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>212</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>213</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3660,10 +3702,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -644,7 +644,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 7:55 PM</t>
+    <t>Friday, 23 May, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>235.5000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -125,9 +137,6 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -434,9 +443,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -473,13 +479,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>32.6400</t>
+    <t>48.9600</t>
   </si>
   <si>
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
@@ -560,7 +563,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>22.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -644,7 +647,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:00 PM</t>
+    <t>Friday, 23 May, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1387,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1394,14 +1397,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1417,7 +1420,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1434,7 +1437,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1443,20 +1446,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1467,7 +1470,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1483,13 +1486,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1500,7 +1503,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1509,14 +1512,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1526,14 +1529,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1549,7 +1552,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1566,7 +1569,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1582,7 +1585,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1592,14 +1595,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1608,14 +1611,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1648,7 +1651,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1714,7 +1717,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1747,7 +1750,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1780,7 +1783,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1797,7 +1800,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1813,7 +1816,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1830,7 +1833,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1846,7 +1849,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1856,14 +1859,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1872,14 +1875,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1889,14 +1892,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1912,7 +1915,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1922,14 +1925,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1955,14 +1958,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1978,7 +1981,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1995,7 +1998,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2011,7 +2014,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,7 +2024,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2044,7 +2047,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,7 +2057,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2077,7 +2080,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2103,14 +2106,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2136,14 +2139,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2169,14 +2172,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2209,7 +2212,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2226,7 +2229,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2242,7 +2245,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2255,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2285,11 +2288,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2301,14 +2304,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2318,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2334,14 +2337,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2374,7 +2377,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,11 +2387,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2400,14 +2403,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2424,7 +2427,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2440,7 +2443,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,14 +2453,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2539,7 +2542,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2549,11 +2552,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,11 +2585,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2618,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,14 +2651,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,14 +2783,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2796,28 +2799,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2829,28 +2832,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2862,28 +2865,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2902,24 +2905,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,31 +2931,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,31 +2964,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,31 +2997,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,7 +3030,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3040,18 +3043,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,7 +3063,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3073,18 +3076,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,31 +3096,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>49</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,31 +3129,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,28 +3162,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3192,28 +3195,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3232,21 +3235,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3258,28 +3261,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3291,31 +3294,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,66 +3327,99 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>209</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>210</v>
       </c>
-      <c t="s" r="Q69" s="12">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>38</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>31</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3283.2750000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>211</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3316.0749999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
         <v>212</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
         <v>213</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>214</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3707,10 +3743,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -377,6 +377,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LASIX 40MG 24 TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -428,6 +437,12 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>PROGEST 200MG 30 ORAL/VAGINAL CAPS</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -527,9 +542,6 @@
     <t>52:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -647,7 +659,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:10 PM</t>
+    <t>Friday, 23 May, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,7 +2356,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,11 +2366,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2410,7 +2422,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2420,11 +2432,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2460,7 +2472,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2476,7 +2488,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2486,11 +2498,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>44</v>
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,11 +2531,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>44</v>
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2575,7 +2587,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2601,7 +2613,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2618,11 +2630,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,11 +2696,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,11 +2795,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2832,31 +2844,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2872,17 +2884,17 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2905,7 +2917,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2971,7 +2983,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +2993,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3030,7 +3042,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>52</v>
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3096,7 +3108,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>52</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3245,11 +3257,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3278,7 +3290,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3301,7 +3313,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,49 +3389,115 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3316.0749999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>148</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>38</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>101</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>212</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>213</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
         <v>214</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>38</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>31</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3449.0749999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>216</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>217</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>218</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3748,10 +3826,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:18 PM</t>
+    <t>Friday, 23 May, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:20 PM</t>
+    <t>Friday, 23 May, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
     <t>47.8800</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -422,9 +440,6 @@
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>246.00</t>
   </si>
   <si>
@@ -659,7 +674,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:26 PM</t>
+    <t>Friday, 23 May, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1447,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1442,14 +1457,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1465,7 +1480,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1482,7 +1497,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1491,20 +1506,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1515,7 +1530,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1531,24 +1546,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1564,7 +1579,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1581,7 +1596,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1590,14 +1605,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1607,14 +1622,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1623,14 +1638,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1647,7 +1662,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1663,7 +1678,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1673,11 +1688,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1689,14 +1704,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1713,7 +1728,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1729,7 +1744,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1739,11 +1754,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1755,14 +1770,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1772,11 +1787,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1805,11 +1820,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1854,14 +1869,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1871,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1887,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1911,7 +1926,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1944,7 +1959,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1960,7 +1975,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1970,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2026,7 +2041,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2043,7 +2058,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2059,7 +2074,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2069,7 +2084,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2092,7 +2107,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,7 +2117,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2125,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2224,7 +2239,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2274,7 +2289,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2290,7 +2305,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2300,7 +2315,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2323,7 +2338,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2415,7 +2430,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2432,11 +2447,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2587,7 +2602,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2653,7 +2668,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2663,11 +2678,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2679,7 +2694,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,11 +2876,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2910,31 +2925,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2950,17 +2965,17 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2983,13 +2998,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3009,31 +3024,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,31 +3057,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,31 +3090,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3121,7 +3136,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3132,7 +3147,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3148,13 +3163,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3162,10 +3177,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,7 +3189,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3187,18 +3202,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>190</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3214,24 +3229,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>52</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,31 +3255,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,31 +3288,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,28 +3321,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3352,15 +3367,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3372,28 +3387,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3405,31 +3420,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3438,66 +3453,132 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3449.0749999999998</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>215</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>153</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>42</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>107</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c t="s" r="Q73" s="12">
         <v>217</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>218</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>219</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>42</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>35</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3515.4050000000002</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>221</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>222</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>223</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3836,10 +3917,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:28 PM</t>
+    <t>Friday, 23 May, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANSELACOX 90MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -146,6 +158,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -179,9 +200,6 @@
     <t>CLEXANE 20MG/0.2ML 2 PREFILLED SYRINGES</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>183.00</t>
   </si>
   <si>
@@ -458,6 +476,15 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -674,7 +701,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:29 PM</t>
+    <t>Friday, 23 May, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1398,7 +1425,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1431,7 +1458,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1480,7 +1507,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1490,14 +1517,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1513,7 +1540,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1530,7 +1557,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1539,20 +1566,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1563,7 +1590,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1585,18 +1612,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1612,7 +1639,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1629,7 +1656,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1645,7 +1672,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1662,7 +1689,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1671,14 +1698,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1711,7 +1738,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1728,7 +1755,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1744,7 +1771,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1754,14 +1781,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1770,14 +1797,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,14 +1814,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1803,14 +1830,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1843,7 +1870,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1876,7 +1903,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1893,7 +1920,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1909,7 +1936,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1942,7 +1969,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,14 +1979,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1968,14 +1995,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2012,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2001,14 +2028,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2018,14 +2045,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2061,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,11 +2078,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2067,14 +2094,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,14 +2111,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2107,7 +2134,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2144,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2140,7 +2167,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2183,14 +2210,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2206,7 +2233,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,11 +2243,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2232,14 +2259,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,14 +2276,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2305,7 +2332,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,11 +2342,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2331,14 +2358,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2355,7 +2382,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2371,7 +2398,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,7 +2408,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2404,7 +2431,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2441,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2457,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,11 +2474,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2463,14 +2490,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2480,11 +2507,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2496,7 +2523,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2513,11 +2540,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2529,14 +2556,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,11 +2573,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2562,14 +2589,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2606,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2622,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2619,7 +2646,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2635,7 +2662,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2672,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2688,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,14 +2721,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2738,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2754,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,7 +2771,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2767,7 +2794,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2784,7 +2811,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,7 +2827,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2817,7 +2844,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2833,7 +2860,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,7 +2870,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2866,7 +2893,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2903,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2892,14 +2919,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2936,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2969,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2958,14 +2985,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +3002,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2998,24 +3025,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,31 +3051,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,28 +3084,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3090,31 +3117,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,31 +3150,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,28 +3183,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3189,31 +3216,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,31 +3249,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>177</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,31 +3282,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,20 +3315,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3312,7 +3339,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3328,24 +3355,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,31 +3381,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,31 +3414,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3433,15 +3460,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3453,28 +3480,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3486,31 +3513,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3532,11 +3559,11 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3547,38 +3574,137 @@
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3515.4050000000002</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>221</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>46</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>222</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>223</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>224</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>162</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>46</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>113</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>227</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>228</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>46</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>39</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3701.9050000000002</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>230</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>231</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>232</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3927,10 +4053,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -512,6 +512,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
@@ -560,6 +569,12 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -671,9 +686,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -701,7 +713,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:31 PM</t>
+    <t>Friday, 23 May, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2926,7 +2938,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2959,7 +2971,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2976,7 +2988,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,11 +3014,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3018,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3058,7 +3070,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3075,7 +3087,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3091,7 +3103,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3108,7 +3120,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3124,21 +3136,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,7 +3179,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3190,7 +3202,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3282,14 +3294,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3355,7 +3367,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3369,10 +3381,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,7 +3393,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3398,14 +3410,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3421,7 +3433,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3464,14 +3476,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,14 +3492,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3530,11 +3542,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3563,11 +3575,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3596,11 +3608,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3662,49 +3674,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3701.9050000000002</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>228</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>162</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>46</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>113</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>230</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>231</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>232</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>46</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>39</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3774.9050000000002</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>234</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>235</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>236</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4068,10 +4146,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -485,6 +485,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -503,6 +512,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
@@ -563,12 +581,6 @@
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -656,9 +668,6 @@
     <t>شمع حريمي</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -713,7 +722,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:32 PM</t>
+    <t>Friday, 23 May, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2839,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2872,7 +2881,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,7 +2891,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2905,7 +2914,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,7 +2924,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2938,7 +2947,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2971,7 +2980,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2988,7 +2997,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3004,7 +3013,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3021,7 +3030,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3037,7 +3046,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3136,7 +3145,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3153,7 +3162,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3169,24 +3178,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,28 +3204,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3235,7 +3244,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3320,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3334,7 +3343,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3459,7 +3468,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3664,7 +3673,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3740,49 +3749,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3774.9050000000002</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>165</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>46</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>113</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>234</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
         <v>235</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>46</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>39</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3882.9050000000002</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>237</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>238</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>239</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4156,10 +4231,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -722,7 +722,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:34 PM</t>
+    <t>Friday, 23 May, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -188,6 +188,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -335,6 +341,18 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -509,9 +527,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -539,6 +554,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
@@ -710,9 +734,6 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
@@ -722,7 +743,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:36 PM</t>
+    <t>Friday, 23 May, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1759,7 +1780,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1769,11 +1790,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1785,14 +1806,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1802,14 +1823,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1818,14 +1839,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1835,11 +1856,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1851,14 +1872,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1868,14 +1889,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1901,11 +1922,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1917,14 +1938,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1934,11 +1955,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1967,11 +1988,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,14 +2021,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2016,14 +2037,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2049,14 +2070,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,14 +2087,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,14 +2153,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2155,7 +2176,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,14 +2219,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,11 +2252,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,11 +2285,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2280,14 +2301,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2297,14 +2318,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,14 +2334,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,14 +2351,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2346,14 +2367,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2419,7 +2440,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,11 +2450,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2445,14 +2466,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2469,7 +2490,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2485,7 +2506,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,7 +2516,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2518,7 +2539,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2561,11 +2582,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2577,14 +2598,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,11 +2615,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2610,7 +2631,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2627,11 +2648,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2643,14 +2664,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,11 +2681,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2733,7 +2754,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2749,7 +2770,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,11 +2780,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>55</v>
@@ -2775,14 +2796,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2808,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2862,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2879,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2881,7 +2902,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2898,7 +2919,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2924,14 +2945,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2947,7 +2968,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2964,7 +2985,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2980,7 +3001,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,11 +3011,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3006,14 +3027,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,11 +3044,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3039,14 +3060,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3072,14 +3093,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3105,14 +3126,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3138,14 +3159,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3176,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,11 +3209,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3204,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,14 +3242,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3237,31 +3258,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,31 +3291,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,28 +3324,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3336,14 +3357,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,11 +3374,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3369,14 +3390,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3386,14 +3407,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3402,14 +3423,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3419,14 +3440,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3435,14 +3456,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3452,11 +3473,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3475,7 +3496,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3485,7 +3506,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3525,7 +3546,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>195</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3541,7 +3562,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3551,14 +3572,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3574,7 +3595,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3584,11 +3605,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3600,14 +3621,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3617,14 +3638,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3650,14 +3671,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,14 +3687,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3683,14 +3704,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3706,7 +3727,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,11 +3737,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3732,14 +3753,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,11 +3770,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3765,14 +3786,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3782,14 +3803,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3815,49 +3836,148 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3882.9050000000002</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>12</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>46</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>237</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>238</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>239</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>171</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>46</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>119</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>241</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>242</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>46</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>39</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3962.645</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>244</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>245</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>246</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4241,10 +4361,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -455,13 +455,10 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>2:5</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
-    <t>10.5600</t>
+    <t>21.1200</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -536,6 +533,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>29.3700</t>
+  </si>
+  <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
@@ -668,7 +674,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -743,7 +749,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 8:44 PM</t>
+    <t>Friday, 23 May, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2737,7 +2743,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2763,7 +2769,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2780,11 +2786,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>55</v>
@@ -2796,7 +2802,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2813,11 +2819,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>55</v>
@@ -2829,7 +2835,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2850,7 +2856,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>55</v>
@@ -2862,7 +2868,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2879,11 +2885,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2895,7 +2901,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2912,11 +2918,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2949,7 +2955,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2961,7 +2967,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2978,11 +2984,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2994,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3027,7 +3033,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3044,11 +3050,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3060,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3077,11 +3083,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3093,7 +3099,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3110,14 +3116,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3143,11 +3149,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3176,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3242,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3258,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3308,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3341,14 +3347,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3357,28 +3363,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3397,7 +3403,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3407,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3440,11 +3446,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3473,11 +3479,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3489,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3506,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,11 +3545,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3555,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,14 +3578,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3595,7 +3601,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3609,10 +3615,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3621,7 +3627,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3638,14 +3644,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>203</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3654,7 +3660,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3671,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>221</v>
@@ -3694,7 +3700,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3704,14 +3710,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3720,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3737,14 +3743,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3770,11 +3776,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3786,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3803,11 +3809,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3819,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,11 +3842,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3859,7 +3865,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3869,11 +3875,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3925,7 +3931,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3935,49 +3941,82 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>243</v>
       </c>
-      <c t="s" r="Q84" s="12">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>244</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>46</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>39</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3962.645</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>244</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>245</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4004.5749999999998</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
         <v>246</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>247</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>248</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4376,10 +4415,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:00 PM</t>
+    <t>Friday, 23 May, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ATOMETAFLOZINE 12.5/1000MG  TAB</t>
+  </si>
+  <si>
+    <t>217.50</t>
+  </si>
+  <si>
+    <t>143.5500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>15.3600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
   </si>
   <si>
@@ -380,6 +389,18 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>-199.9800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>IMIPRAMINE 25MG 50 TAB.</t>
   </si>
   <si>
@@ -500,6 +521,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">SANDRILL 600MG  CAPS</t>
+  </si>
+  <si>
+    <t>318.00</t>
+  </si>
+  <si>
+    <t>-104.9400</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -749,7 +782,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:40 PM</t>
+    <t>Friday, 23 May, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1687,13 +1720,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1704,7 +1737,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1713,14 +1746,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,14 +1763,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1753,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1770,7 +1803,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1786,7 +1819,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1829,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1845,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1829,7 +1862,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1852,7 +1885,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1869,7 +1902,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1885,7 +1918,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1918,7 +1951,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1984,7 +2017,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2017,7 +2050,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2050,7 +2083,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2067,7 +2100,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2083,7 +2116,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2100,7 +2133,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2149,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2142,14 +2175,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2166,7 +2199,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2182,7 +2215,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2248,7 +2281,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2265,7 +2298,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2281,7 +2314,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,7 +2324,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2314,7 +2347,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,7 +2357,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2347,7 +2380,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2423,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2423,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,11 +2489,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2472,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,11 +2522,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2505,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2545,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,11 +2621,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2604,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2628,7 +2661,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2644,7 +2677,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,7 +2687,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2677,7 +2710,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,11 +2720,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2703,7 +2736,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2720,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2736,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2885,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,31 +3033,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,11 +3083,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3066,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,11 +3116,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3099,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,11 +3149,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3132,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,11 +3182,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3165,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3380,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3363,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,31 +3429,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,31 +3462,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,28 +3495,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3495,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,11 +3545,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3528,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,14 +3578,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,11 +3644,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3627,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,11 +3677,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3660,7 +3693,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3677,14 +3710,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,14 +3743,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3776,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3759,14 +3792,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,14 +3809,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,14 +3842,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>234</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3832,7 +3865,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,14 +3891,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,11 +3908,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3891,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,11 +3941,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3924,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,14 +3974,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3957,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,49 +4007,148 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4004.5749999999998</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>246</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>247</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>248</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>249</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>46</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>250</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>252</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>181</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>46</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>122</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>254</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>255</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>46</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>39</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3843.2049999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>257</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>258</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>259</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4420,10 +4552,25 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ATTIVO WHITENING CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>CRESTOLIP 20 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>DAFLON 500MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -350,6 +368,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -464,6 +491,9 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
     <t>MARK FAST 30 CAPSULES</t>
   </si>
   <si>
@@ -542,12 +572,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SIRDALUD 2MG 20 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
     <t>46.5300</t>
   </si>
   <si>
@@ -575,6 +608,15 @@
     <t>29.3700</t>
   </si>
   <si>
+    <t>TRAJENTA 5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>501.00</t>
+  </si>
+  <si>
+    <t>165.3300</t>
+  </si>
+  <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
@@ -782,7 +824,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:45 PM</t>
+    <t>Friday, 23 May, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1795,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1770,7 +1812,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1786,7 +1828,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1803,7 +1845,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1819,7 +1861,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1836,7 +1878,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1852,7 +1894,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,14 +1904,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1878,14 +1920,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,7 +1937,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1918,7 +1960,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1935,7 +1977,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1951,7 +1993,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1984,7 +2026,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1994,14 +2036,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,14 +2052,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2050,7 +2092,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2083,7 +2125,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2116,7 +2158,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2133,7 +2175,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2149,7 +2191,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2182,7 +2224,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2234,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2250,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2267,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,14 +2283,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2300,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2316,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,11 +2333,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2307,14 +2349,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,14 +2366,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,7 +2389,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2399,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2380,7 +2422,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2423,14 +2465,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,14 +2481,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2498,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2514,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2531,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,14 +2547,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2564,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2545,7 +2587,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2597,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,14 +2613,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,11 +2630,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2604,14 +2646,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,11 +2663,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2637,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2696,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,14 +2712,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,7 +2729,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2710,7 +2752,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,11 +2762,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2736,14 +2778,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2795,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,11 +2828,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2802,14 +2844,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,11 +2861,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2835,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2894,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,14 +2910,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,14 +2927,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2908,7 +2950,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2960,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2976,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +3009,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +3026,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3007,7 +3049,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3024,7 +3066,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3040,13 +3082,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3057,7 +3099,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,11 +3158,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3132,14 +3174,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3191,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,31 +3207,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3290,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,7 +3306,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3281,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3356,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,7 +3372,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3347,11 +3389,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3363,7 +3405,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3380,11 +3422,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3396,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3429,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,11 +3554,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3535,21 +3577,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3561,31 +3603,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,31 +3636,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3634,24 +3676,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,31 +3702,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,31 +3735,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3733,7 +3775,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,11 +3785,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3766,7 +3808,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,14 +3818,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,14 +3900,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,11 +3917,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3891,14 +3933,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,14 +3950,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,14 +3966,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,11 +3983,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3957,7 +3999,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3974,14 +4016,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,14 +4032,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4049,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4040,14 +4082,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,14 +4115,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,14 +4131,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,49 +4148,247 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3843.2049999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>256</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>257</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>46</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>258</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>259</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>260</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>27</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>46</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>14</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>262</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>46</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>157</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>12</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>46</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>264</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>192</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>46</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>131</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>268</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>269</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>46</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>39</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4487.5349999999999</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>271</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>272</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>273</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4567,10 +4807,40 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -503,6 +503,12 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t xml:space="preserve">MELASONOZ   SYRUP</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -704,9 +710,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -824,7 +827,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:46 PM</t>
+    <t>Friday, 23 May, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3016,24 +3019,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3042,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3059,11 +3062,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>52</v>
@@ -3075,14 +3078,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,11 +3095,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>52</v>
@@ -3108,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,7 +3128,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3148,7 +3151,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,14 +3161,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3181,7 +3184,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3191,14 +3194,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3207,31 +3210,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3240,31 +3243,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3273,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,7 +3293,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3313,7 +3316,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3346,7 +3349,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,11 +3359,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3379,7 +3382,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,14 +3392,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3405,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,14 +3425,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3438,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,11 +3458,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3471,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3504,7 +3507,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3521,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,11 +3557,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3603,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3636,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,11 +3656,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3669,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,14 +3689,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3702,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3722,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3768,28 +3771,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3808,7 +3811,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,11 +3821,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3851,11 +3854,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3867,14 +3870,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,11 +3887,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3907,7 +3910,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3917,14 +3920,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,14 +3936,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,11 +3953,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -3966,14 +3969,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,14 +3986,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,14 +4002,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4016,14 +4019,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,7 +4035,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4049,14 +4052,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>246</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,7 +4068,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4082,14 +4085,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4098,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,14 +4118,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,14 +4151,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,14 +4167,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4181,11 +4184,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4197,14 +4200,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4214,11 +4217,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4237,7 +4240,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,11 +4250,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4263,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,11 +4283,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4296,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,14 +4316,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4329,14 +4332,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,49 +4349,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>270</v>
       </c>
-      <c t="s" r="Q94" s="12">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>46</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>39</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4487.5349999999999</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>271</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4547.5349999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>272</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
         <v>273</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>274</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4837,10 +4873,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -308,18 +308,21 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -413,9 +416,6 @@
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -515,7 +515,7 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>21.1200</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -752,7 +752,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -827,7 +827,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:49 PM</t>
+    <t>Friday, 23 May, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2310,7 +2310,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2326,7 +2326,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2376,7 +2376,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2451,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2534,11 +2534,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2550,14 +2550,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2567,11 +2567,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2583,14 +2583,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2607,7 +2607,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2616,14 +2616,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2649,14 +2649,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2963,11 +2963,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3052,7 +3052,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3069,7 +3069,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3118,7 +3118,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3729,7 +3729,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3910,7 +3910,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>247</v>
@@ -4349,14 +4349,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4394,7 +4394,7 @@
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="P96" s="13">
-        <v>4547.5349999999999</v>
+        <v>4573.9750000000004</v>
       </c>
       <c r="Q96" s="13"/>
     </row>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -392,6 +392,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -428,6 +437,15 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>IMIPRAMINE 25MG 50 TAB.</t>
   </si>
   <si>
@@ -827,7 +845,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:51 PM</t>
+    <t>Friday, 23 May, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2590,7 +2608,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2600,14 +2618,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2633,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2666,11 +2684,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2682,14 +2700,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2699,14 +2717,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2748,7 +2766,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2765,11 +2783,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2781,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2805,7 +2823,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2821,7 +2839,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2831,7 +2849,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2854,7 +2872,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2864,14 +2882,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2897,11 +2915,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2930,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2996,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3012,28 +3030,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,14 +3080,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3078,31 +3096,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3118,7 +3136,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3135,7 +3153,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3161,11 +3179,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>52</v>
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3210,7 +3228,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3227,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3243,31 +3261,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3276,14 +3294,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3293,11 +3311,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3309,7 +3327,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3322,18 +3340,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3392,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,11 +3476,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3498,7 +3516,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3514,7 +3532,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3547,7 +3565,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3564,7 +3582,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3580,7 +3598,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3597,7 +3615,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3613,7 +3631,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3646,7 +3664,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3663,7 +3681,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3679,7 +3697,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,14 +3740,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3738,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,11 +3773,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3778,7 +3796,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,31 +3822,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,28 +3855,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,11 +3905,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3936,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3953,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3986,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4009,7 +4027,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4035,7 +4053,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4052,11 +4070,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4068,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4085,14 +4103,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4118,14 +4136,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>249</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4155,10 +4173,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>253</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4174,7 +4192,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4184,14 +4202,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4200,14 +4218,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4217,14 +4235,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4233,14 +4251,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4250,11 +4268,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4266,14 +4284,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4283,11 +4301,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4299,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4316,11 +4334,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4332,14 +4350,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,14 +4367,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4365,14 +4383,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4382,49 +4400,115 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4573.9750000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>272</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>273</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>200</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>46</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>135</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>274</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>275</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>276</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>46</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>39</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4674.9549999999999</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>278</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>279</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>280</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4878,10 +4962,20 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -834,6 +834,15 @@
   </si>
   <si>
     <t>96.0000</t>
+  </si>
+  <si>
+    <t>مرهم راسب ابيض</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
@@ -4456,7 +4465,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,7 +4475,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4477,38 +4486,71 @@
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4674.9549999999999</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>278</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>279</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>46</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>39</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>280</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4681.9549999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>281</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>282</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>283</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4972,10 +5014,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -566,6 +566,15 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -686,6 +695,12 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -716,6 +731,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -812,15 +836,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كريم 555</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -849,9 +873,6 @@
   </si>
   <si>
     <t>42:0</t>
-  </si>
-  <si>
-    <t>35.0000</t>
   </si>
   <si>
     <t>Friday, 23 May, 2025 9:52 PM</t>
@@ -3310,7 +3331,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,14 +3341,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3343,13 +3364,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3360,7 +3381,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,31 +3390,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3409,7 +3430,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,11 +3440,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3435,14 +3456,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,14 +3473,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3468,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,11 +3506,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3501,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3541,7 +3562,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3558,7 +3579,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3574,7 +3595,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3607,7 +3628,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3657,7 +3678,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3673,7 +3694,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3706,7 +3727,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3739,7 +3760,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3756,7 +3777,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3772,7 +3793,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3803,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3798,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,14 +3836,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3864,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3897,31 +3918,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3930,28 +3951,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3963,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,11 +4001,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3996,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,11 +4034,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4029,14 +4050,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,11 +4133,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4135,7 +4156,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4145,7 +4166,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4182,10 +4203,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>253</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4201,7 +4222,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,14 +4232,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4234,7 +4255,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,11 +4265,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4260,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,14 +4298,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4293,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,14 +4331,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,14 +4347,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,14 +4364,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4366,7 +4387,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4397,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4392,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,11 +4430,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4425,14 +4446,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4463,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4479,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4496,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4491,14 +4512,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,49 +4529,181 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4681.9549999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>278</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>46</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>279</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>281</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>203</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>46</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>135</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c t="s" r="Q100" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>283</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>203</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>46</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>284</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>286</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>287</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>46</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>39</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4786.8149999999996</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>288</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>289</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>290</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5019,10 +5172,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -422,6 +422,24 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -500,12 +518,6 @@
     <t>LASIX 40MG 24 TAB.</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -596,6 +608,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -774,9 +792,6 @@
   </si>
   <si>
     <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>95.00</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -2737,7 +2752,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,11 +2762,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2862,7 +2877,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2879,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2919,7 +2934,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2935,7 +2950,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,7 +2960,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2968,7 +2983,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,11 +3059,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,11 +3125,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3133,21 +3148,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3192,31 +3207,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3258,7 +3273,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3275,11 +3290,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>52</v>
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3331,7 +3346,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,11 +3356,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>52</v>
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,31 +3405,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,11 +3455,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3456,7 +3471,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3469,18 +3484,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3489,7 +3504,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3562,7 +3577,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,11 +3653,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,11 +3851,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3892,7 +3907,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3909,7 +3924,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3925,7 +3940,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,31 +3999,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4024,24 +4039,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4057,21 +4072,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,11 +4115,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,11 +4148,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4189,7 +4204,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,11 +4247,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,11 +4280,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4281,7 +4296,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>261</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4364,11 +4379,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4496,11 +4511,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4529,11 +4544,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4562,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4585,7 +4600,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,11 +4643,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4661,49 +4676,148 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4786.8149999999996</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>209</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>46</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>135</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>288</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>209</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>46</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
         <v>289</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>290</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>291</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>292</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>46</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>39</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4981.8149999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>293</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>294</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>295</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5192,10 +5306,25 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -614,6 +614,15 @@
     <t>95.00</t>
   </si>
   <si>
+    <t>SENSODERM SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -731,6 +740,15 @@
     <t>48.9600</t>
   </si>
   <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
   </si>
   <si>
@@ -831,12 +849,6 @@
   </si>
   <si>
     <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -3544,7 +3556,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,7 +3566,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3577,7 +3589,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3603,14 +3615,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3632,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3709,7 +3721,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3726,7 +3738,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3742,7 +3754,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3775,7 +3787,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3825,7 +3837,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3841,7 +3853,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3874,7 +3886,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3907,7 +3919,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3924,7 +3936,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3940,7 +3952,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3978,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +3995,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4011,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4028,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4039,7 +4051,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4056,7 +4068,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4072,7 +4084,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,11 +4094,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4098,31 +4110,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,28 +4143,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4164,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,11 +4193,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4197,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,11 +4226,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4230,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4263,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4292,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4336,7 +4348,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,7 +4374,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4379,11 +4391,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,14 +4424,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4445,14 +4457,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>268</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4482,10 +4494,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>272</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4501,7 +4513,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,14 +4523,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,14 +4556,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,11 +4622,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4655,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,11 +4688,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4699,7 +4711,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,11 +4754,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,49 +4787,115 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>212</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>46</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>293</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4981.8149999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>293</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>294</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>295</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>296</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>46</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>39</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5049.8149999999996</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>297</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>298</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>299</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5321,10 +5399,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -902,7 +902,7 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:52 PM</t>
+    <t>Friday, 23 May, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -779,7 +779,13 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>-18:0</t>
+  </si>
+  <si>
+    <t>630.0000</t>
+  </si>
+  <si>
+    <t>42:0</t>
   </si>
   <si>
     <t>بيروسول 300 مل</t>
@@ -899,10 +905,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>Friday, 23 May, 2025 9:53 PM</t>
+    <t>Friday, 23 May, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4263,10 +4266,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4362,7 +4365,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4374,7 +4377,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4440,7 +4443,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4457,11 +4460,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4473,7 +4476,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,7 +4509,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4523,14 +4526,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4572,7 +4575,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4638,7 +4641,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4671,7 +4674,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4692,10 +4695,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,7 +4707,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4737,7 +4740,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4754,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4770,7 +4773,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4791,7 +4794,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>124</v>
@@ -4803,7 +4806,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4820,11 +4823,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,13 +4868,13 @@
     </row>
     <row r="108" ht="24.75" customHeight="1">
       <c r="P108" s="13">
-        <v>5049.8149999999996</v>
+        <v>5679.8149999999996</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4879,13 +4882,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -779,133 +779,130 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>-18:0</t>
-  </si>
-  <si>
-    <t>630.0000</t>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>52:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>120:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم 555</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>مرهم راسب ابيض</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>42:0</t>
   </si>
   <si>
-    <t>بيروسول 300 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>52:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>120:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>فازلين بيور وسط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم 555</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 190 مل</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>مرهم راسب ابيض</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب صغيره</t>
-  </si>
-  <si>
-    <t>Friday, 23 May, 2025 9:56 PM</t>
+    <t>Friday, 23 May, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4266,10 +4263,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4311,7 +4308,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4344,14 +4341,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4365,7 +4362,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4377,7 +4374,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4394,11 +4391,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4410,7 +4407,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4443,7 +4440,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4460,11 +4457,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4476,7 +4473,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4493,14 +4490,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,7 +4506,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4526,14 +4523,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4559,11 +4556,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4575,7 +4572,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4608,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4622,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4641,7 +4638,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4674,7 +4671,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4707,7 +4704,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4740,7 +4737,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4757,11 +4754,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4773,7 +4770,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4794,7 +4791,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>124</v>
@@ -4806,7 +4803,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4823,11 +4820,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4839,14 +4836,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,13 +4865,13 @@
     </row>
     <row r="108" ht="24.75" customHeight="1">
       <c r="P108" s="13">
-        <v>5679.8149999999996</v>
+        <v>5079.8149999999996</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4882,13 +4879,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -557,6 +557,9 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PENDULINE كرلي كريم</t>
+  </si>
+  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -902,7 +905,7 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:57 PM</t>
+    <t>Friday, 23 May, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3325,24 +3328,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,11 +3371,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>52</v>
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,31 +3486,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,31 +3519,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3582,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3599,11 +3602,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,11 +3701,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,11 +3800,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3846,7 +3849,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4051,7 +4054,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4183,21 +4186,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,11 +4229,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4348,7 +4351,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4447,7 +4450,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,7 +4476,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>272</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,7 +4509,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4523,14 +4526,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,14 +4559,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,14 +4592,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4612,7 +4615,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,11 +4658,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4678,7 +4681,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,14 +4691,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4711,7 +4714,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,14 +4724,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4744,7 +4747,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4787,14 +4790,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4803,14 +4806,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,14 +4823,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4853,49 +4856,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5079.8149999999996</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>296</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
         <v>297</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>46</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>39</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5179.8149999999996</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>298</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
         <v>299</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>300</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5409,10 +5445,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -548,6 +557,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -905,7 +923,7 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 9:58 PM</t>
+    <t>Friday, 23 May, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2206,7 +2224,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2223,7 +2241,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2239,7 +2257,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2256,7 +2274,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2289,7 +2307,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2305,7 +2323,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2322,7 +2340,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2338,7 +2356,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2355,7 +2373,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2371,7 +2389,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2503,7 +2521,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2520,7 +2538,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2536,7 +2554,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,7 +2564,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2569,7 +2587,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,7 +2597,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2602,7 +2620,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2619,7 +2637,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2635,7 +2653,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,11 +2663,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2685,7 +2703,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2701,7 +2719,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2800,7 +2818,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2833,7 +2851,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2932,7 +2950,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2998,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3015,7 +3033,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3031,7 +3049,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3074,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,11 +3125,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3229,24 +3247,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3255,31 +3273,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3295,7 +3313,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3312,7 +3330,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3334,15 +3352,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>52</v>
@@ -3387,31 +3405,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>52</v>
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3526,24 +3544,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>199</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3592,13 +3610,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3609,7 +3627,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3635,11 +3653,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3658,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,11 +3686,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3840,7 +3858,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3856,7 +3874,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3889,7 +3907,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3906,7 +3924,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3922,7 +3940,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3939,7 +3957,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3955,7 +3973,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3988,7 +4006,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4005,7 +4023,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4021,7 +4039,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4080,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4153,7 +4171,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4170,7 +4188,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4186,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4212,31 +4230,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,28 +4263,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,11 +4346,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4344,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4365,10 +4383,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4412,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4450,7 +4468,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,7 +4494,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4493,11 +4511,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4509,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4559,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>275</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4596,10 +4614,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4615,7 +4633,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,14 +4643,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4641,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,14 +4676,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4707,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,11 +4775,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4773,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,14 +4841,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4839,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4856,11 +4874,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4872,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4889,49 +4907,115 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>219</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>46</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>300</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5179.8149999999996</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>298</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>299</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>300</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>302</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>303</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>46</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>39</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5477.8149999999996</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>304</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>305</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>306</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5450,10 +5534,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -578,6 +587,15 @@
     <t>PENDULINE كرلي كريم</t>
   </si>
   <si>
+    <t>PHARMATEARS 0.5% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -701,9 +719,6 @@
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
     <t>29.0000</t>
   </si>
   <si>
@@ -902,6 +917,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>ماكنيه حلاقه ناسيت</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -917,13 +935,19 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 10:00 PM</t>
+    <t>Friday, 23 May, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1680,7 +1704,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1713,7 +1737,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1729,7 +1753,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1739,11 +1763,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1755,14 +1779,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1779,7 +1803,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1805,14 +1829,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1828,24 +1852,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1854,7 +1878,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1867,7 +1891,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1878,7 +1902,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1887,31 +1911,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1927,7 +1951,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1944,7 +1968,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1960,7 +1984,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1977,7 +2001,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1993,7 +2017,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2010,7 +2034,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2026,7 +2050,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2069,7 +2093,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2092,7 +2116,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2109,7 +2133,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2125,7 +2149,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2158,7 +2182,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,14 +2192,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2224,7 +2248,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2241,7 +2265,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2257,7 +2281,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2274,7 +2298,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2290,7 +2314,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2307,7 +2331,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2340,7 +2364,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2356,7 +2380,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2373,7 +2397,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2389,7 +2413,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2406,7 +2430,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2422,7 +2446,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,7 +2578,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2571,7 +2595,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2597,7 +2621,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2620,7 +2644,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,7 +2654,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2653,7 +2677,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2670,7 +2694,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2686,7 +2710,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,11 +2720,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2736,7 +2760,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2752,7 +2776,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2851,7 +2875,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2884,7 +2908,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,11 +2918,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2910,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,14 +2951,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2943,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2983,7 +3007,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,11 +3017,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3049,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3066,7 +3090,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3082,7 +3106,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3125,11 +3149,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3182,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,11 +3215,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3280,24 +3304,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,31 +3330,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3346,7 +3370,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3363,7 +3387,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3379,7 +3403,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3396,7 +3420,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3412,24 +3436,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,31 +3462,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3478,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3610,24 +3634,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3676,13 +3700,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3693,7 +3717,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3743,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3742,7 +3766,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,11 +3776,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,11 +3908,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3907,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3924,7 +3948,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3940,7 +3964,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3973,7 +3997,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3990,7 +4014,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4006,7 +4030,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,11 +4073,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,11 +4139,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4138,7 +4162,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,7 +4221,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4214,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,11 +4304,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4296,31 +4320,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,28 +4353,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4369,24 +4393,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4408,15 +4432,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4428,20 +4452,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4449,10 +4473,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,31 +4485,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,31 +4518,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,31 +4551,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,31 +4584,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,31 +4617,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,31 +4650,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>281</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4666,24 +4690,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4716,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4738,7 +4762,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4749,7 +4773,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4765,21 +4789,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4798,24 +4822,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,28 +4848,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4857,31 +4881,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,31 +4914,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4930,13 +4954,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4963,59 +4987,191 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q110" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>303</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>225</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>49</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>141</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>225</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>49</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>306</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5477.8149999999996</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>304</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>305</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>306</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>309</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>49</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>147</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>311</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>49</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>42</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5644.5249999999996</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>312</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>313</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>314</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5544,10 +5700,30 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -80,42 +80,45 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ANSELACOX 90MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>235.50</t>
+  </si>
+  <si>
+    <t>235.5000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ANSELACOX 90MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>235.50</t>
-  </si>
-  <si>
-    <t>235.5000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -326,9 +329,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -947,7 +947,7 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 10:05 PM</t>
+    <t>Friday, 23 May, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1671,7 +1671,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1680,14 +1680,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1713,14 +1713,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1753,7 +1753,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1763,11 +1763,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1779,14 +1779,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1796,11 +1796,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1829,14 +1829,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1878,28 +1878,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1911,31 +1911,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1944,14 +1944,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1961,11 +1961,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1994,11 +1994,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2027,14 +2027,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2060,11 +2060,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2076,14 +2076,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2093,11 +2093,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2109,14 +2109,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2126,11 +2126,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2142,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2192,11 +2192,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2208,14 +2208,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2225,11 +2225,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2241,14 +2241,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2258,11 +2258,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2291,11 +2291,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2307,14 +2307,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2324,11 +2324,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2423,14 +2423,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2439,14 +2439,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2472,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2545,7 +2545,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>113</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2710,7 +2710,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2819,11 +2819,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>138</v>
@@ -2875,7 +2875,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2941,7 +2941,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2974,7 +2974,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3007,7 +3007,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3073,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3106,7 +3106,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3238,7 +3238,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3337,13 +3337,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3403,7 +3403,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3436,7 +3436,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3453,7 +3453,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3469,21 +3469,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3502,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3552,7 +3552,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3568,7 +3568,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3585,7 +3585,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3601,7 +3601,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3644,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3667,7 +3667,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3706,7 +3706,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3766,7 +3766,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3931,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3964,7 +3964,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3997,7 +3997,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4096,7 +4096,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4129,7 +4129,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4162,7 +4162,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4228,7 +4228,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4294,7 +4294,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4399,7 +4399,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4432,11 +4432,11 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4465,7 +4465,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4476,7 +4476,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4498,7 +4498,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4531,7 +4531,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4564,7 +4564,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4575,7 +4575,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4591,13 +4591,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4608,7 +4608,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4624,13 +4624,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4657,13 +4657,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4674,7 +4674,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4690,13 +4690,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4723,13 +4723,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4762,7 +4762,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4773,7 +4773,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4795,7 +4795,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4828,7 +4828,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4861,7 +4861,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4888,13 +4888,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4905,7 +4905,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4927,7 +4927,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4960,7 +4960,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4993,7 +4993,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5026,7 +5026,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5059,7 +5059,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5092,7 +5092,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5125,11 +5125,11 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5141,7 +5141,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>5644.5249999999996</v>
+        <v>5615.8149999999996</v>
       </c>
       <c r="Q115" s="13"/>
     </row>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -947,7 +947,7 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 10:07 PM</t>
+    <t>Friday, 23 May, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -524,13 +524,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>24.0000</t>
   </si>
   <si>
     <t>LASIX 40MG 24 TAB.</t>
@@ -668,9 +665,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>SIRDALUD 2MG 20 TAB</t>
   </si>
   <si>
@@ -863,7 +857,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -3172,7 +3166,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,14 +3176,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3198,7 +3192,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3231,7 +3225,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3264,7 +3258,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3297,7 +3291,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3314,11 +3308,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3330,7 +3324,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3347,11 +3341,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3363,7 +3357,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3380,11 +3374,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>113</v>
@@ -3396,7 +3390,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3413,11 +3407,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3429,7 +3423,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3446,11 +3440,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>56</v>
@@ -3462,7 +3456,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3495,7 +3489,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3512,11 +3506,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3528,7 +3522,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3545,11 +3539,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>56</v>
@@ -3561,7 +3555,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3578,11 +3572,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>56</v>
@@ -3594,7 +3588,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3611,11 +3605,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3627,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3648,7 +3642,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>56</v>
@@ -3660,7 +3654,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3677,11 +3671,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3693,7 +3687,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3710,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>211</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3726,7 +3720,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3743,7 +3737,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3759,7 +3753,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3776,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3792,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3813,7 +3807,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3825,7 +3819,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3842,11 +3836,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3858,7 +3852,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3879,7 +3873,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3891,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3924,7 +3918,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3941,11 +3935,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3957,7 +3951,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3974,11 +3968,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3990,7 +3984,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4007,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4023,7 +4017,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4040,11 +4034,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4056,7 +4050,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4073,11 +4067,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4089,7 +4083,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4106,11 +4100,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4122,7 +4116,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4139,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4155,7 +4149,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4172,11 +4166,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4188,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4221,7 +4215,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4254,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,11 +4265,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>113</v>
@@ -4287,7 +4281,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4304,11 +4298,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4320,7 +4314,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4337,11 +4331,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4353,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,11 +4364,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4386,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4407,7 +4401,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4419,14 +4413,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4440,7 +4434,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4452,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4473,7 +4467,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>28</v>
@@ -4485,14 +4479,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,11 +4496,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4518,7 +4512,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4551,14 +4545,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4572,7 +4566,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4584,7 +4578,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4601,11 +4595,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>28</v>
@@ -4617,7 +4611,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4634,7 +4628,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4650,7 +4644,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4667,11 +4661,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4683,7 +4677,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4700,14 +4694,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,7 +4710,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4733,14 +4727,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,14 +4743,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,11 +4760,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4782,14 +4776,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,11 +4793,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4815,14 +4809,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,11 +4826,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4848,14 +4842,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,11 +4859,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4881,7 +4875,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4902,7 +4896,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>28</v>
@@ -4914,14 +4908,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4935,7 +4929,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4947,7 +4941,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4964,11 +4958,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4980,14 +4974,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5001,7 +4995,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>130</v>
@@ -5013,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5034,7 +5028,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>130</v>
@@ -5046,14 +5040,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,11 +5057,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5079,14 +5073,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5100,7 +5094,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5112,14 +5106,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5133,7 +5127,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5141,13 +5135,13 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>5615.8149999999996</v>
+        <v>5629.8149999999996</v>
       </c>
       <c r="Q115" s="13"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c t="s" r="A116" s="14">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5155,13 +5149,13 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c t="s" r="G116" s="15">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="16"/>
       <c t="s" r="K116" s="17">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -842,6 +842,9 @@
     <t>سائل ريد</t>
   </si>
   <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -896,6 +899,9 @@
     <t>فازلين بيور وسط</t>
   </si>
   <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -935,13 +941,16 @@
     <t>16:0</t>
   </si>
   <si>
+    <t>معجون كلوز اب اخضر الكبير</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 10:14 PM</t>
+    <t>Friday, 23 May, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4618,7 +4627,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4632,10 +4641,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,7 +4653,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4661,11 +4670,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4677,7 +4686,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,7 +4719,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4734,7 +4743,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4760,11 +4769,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>28</v>
@@ -4776,7 +4785,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4826,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4842,7 +4851,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4875,7 +4884,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4908,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4974,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,14 +5000,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>180</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5007,14 +5016,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,11 +5033,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>130</v>
@@ -5057,14 +5066,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,11 +5099,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5123,49 +5132,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5629.8149999999996</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>310</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>217</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>50</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>293</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>311</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
         <v>312</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>50</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>43</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5809.8149999999996</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>313</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>314</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>315</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5714,10 +5789,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-23_00-00.xlsx
+++ b/DaySale_2025-05-23_00-00.xlsx
@@ -950,7 +950,7 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>Friday, 23 May, 2025 10:19 PM</t>
+    <t>Friday, 23 May, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
